--- a/grupo16_proj_auto_avaliacao .xlsx
+++ b/grupo16_proj_auto_avaliacao .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianahorta/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\parece\SocketProjectRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9B95155-34FF-4642-B741-A5AEC9F69C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8C69D3-3AF0-4DC5-8024-6699913D8D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="24720" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Autoavaliação" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Ficha de autoavaliação</t>
   </si>
@@ -388,12 +388,15 @@
   <si>
     <t>RCL03</t>
   </si>
+  <si>
+    <t>Tivemos dificuldades em correr os scripts no sigma. Na nossa máquina funciona mas no sigma não, não tivemos tempo para perceber o erro.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +433,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -538,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -591,16 +611,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -935,39 +958,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.83203125" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" style="4" customWidth="1"/>
-    <col min="3" max="4" width="4.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="50.83203125" style="13" customWidth="1"/>
+    <col min="3" max="4" width="4.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="63.42578125" style="13" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
@@ -975,7 +998,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
@@ -983,7 +1006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="14" t="s">
         <v>16</v>
@@ -991,13 +1014,13 @@
       <c r="E6" s="2"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="15">
         <f>B8+F8</f>
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="C7" s="4">
         <f>C8+G8</f>
@@ -1009,13 +1032,13 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="7">
         <f>SUM(B9:B27)</f>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4">
         <f>SUM(C9:C27)</f>
@@ -1026,14 +1049,14 @@
       </c>
       <c r="F8" s="7">
         <f>SUM(F9:F27)</f>
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="G8" s="4">
         <f>SUM(G9:G27)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1047,13 +1070,13 @@
         <v>71</v>
       </c>
       <c r="F9" s="8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -1067,13 +1090,13 @@
         <v>72</v>
       </c>
       <c r="F10" s="8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -1087,13 +1110,13 @@
         <v>73</v>
       </c>
       <c r="F11" s="8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G11" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -1113,7 +1136,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -1133,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -1153,7 +1176,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
@@ -1163,6 +1186,7 @@
       <c r="C15" s="4">
         <v>0.25</v>
       </c>
+      <c r="D15" s="20"/>
       <c r="E15" s="1" t="s">
         <v>77</v>
       </c>
@@ -1173,7 +1197,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1183,7 +1207,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -1203,12 +1227,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E18" s="1"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
@@ -1219,7 +1243,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1229,12 +1253,12 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="11">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
@@ -1249,12 +1273,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C22" s="18">
         <v>0.5</v>
@@ -1263,18 +1287,18 @@
         <v>80</v>
       </c>
       <c r="F22" s="8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G22" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -1289,12 +1313,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C24" s="4">
         <v>0.5</v>
@@ -1303,13 +1327,13 @@
         <v>82</v>
       </c>
       <c r="F24" s="8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1318,12 +1342,12 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="11">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="C26" s="4">
         <v>2</v>
@@ -1332,208 +1356,211 @@
         <v>83</v>
       </c>
       <c r="F26" s="8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-    </row>
-    <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="8"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="8"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="8"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="8"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="8"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="8"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="8"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="8"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="8"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="8"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="8"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B43" s="8"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B44" s="8"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="8"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B46" s="8"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="8"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B48" s="8"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="8"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B50" s="8"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B51" s="8"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="8"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>87</v>
       </c>
       <c r="B53" s="8"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>88</v>
       </c>
       <c r="B54" s="8"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>89</v>
       </c>
       <c r="B55" s="8"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
     </row>
   </sheetData>
@@ -1586,13 +1613,13 @@
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -1609,7 +1636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -1626,7 +1653,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -1643,7 +1670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -1660,7 +1687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -1674,7 +1701,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -1685,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -1693,7 +1720,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>41</v>
       </c>
@@ -1701,7 +1728,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>42</v>
       </c>
@@ -1709,7 +1736,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>43</v>
       </c>
@@ -1717,22 +1744,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>47</v>
       </c>
